--- a/final_data_pipeline/output/311615longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311615longform_elec_options.xlsx
@@ -675,7 +675,7 @@
         <v>68</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>19.30324074074072</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -722,7 +722,7 @@
         <v>68</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>17.25771604938272</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -769,7 +769,7 @@
         <v>68</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>13.62268518518517</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -1098,7 +1098,7 @@
         <v>68</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L11">
         <v>8000</v>
@@ -1145,7 +1145,7 @@
         <v>68</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>19.79629629629628</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1192,7 +1192,7 @@
         <v>68</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1286,7 +1286,7 @@
         <v>68</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>0.8611111111111096</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1380,7 +1380,7 @@
         <v>68</v>
       </c>
       <c r="K17">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L17">
         <v>8000</v>
@@ -1427,7 +1427,7 @@
         <v>68</v>
       </c>
       <c r="K18">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L18">
         <v>8000</v>
@@ -1474,7 +1474,7 @@
         <v>68</v>
       </c>
       <c r="K19">
-        <v>10</v>
+        <v>16.86342592592595</v>
       </c>
       <c r="L19">
         <v>8000</v>
@@ -1521,7 +1521,7 @@
         <v>68</v>
       </c>
       <c r="K20">
-        <v>10</v>
+        <v>5.486111111111112</v>
       </c>
       <c r="L20">
         <v>8000</v>
@@ -1568,7 +1568,7 @@
         <v>68</v>
       </c>
       <c r="K21">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L21">
         <v>8000</v>
@@ -1662,7 +1662,7 @@
         <v>68</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>19.36574074074073</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1944,7 +1944,7 @@
         <v>68</v>
       </c>
       <c r="K29">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L29">
         <v>8000</v>
@@ -2038,7 +2038,7 @@
         <v>68</v>
       </c>
       <c r="K31">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L31">
         <v>8000</v>
@@ -2085,7 +2085,7 @@
         <v>69</v>
       </c>
       <c r="K32">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L32">
         <v>8000</v>
@@ -2100,10 +2100,10 @@
         <v>28.03121167607779</v>
       </c>
       <c r="R32">
-        <v>1.441896551724138</v>
+        <v>1.466311090415359</v>
       </c>
       <c r="S32">
-        <v>1.530185185185185</v>
+        <v>1.558048815385048</v>
       </c>
       <c r="T32">
         <v>0.003503901459509723</v>
@@ -2138,7 +2138,7 @@
         <v>68</v>
       </c>
       <c r="K33">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L33">
         <v>8000</v>
